--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H2">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I2">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J2">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N2">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P2">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q2">
-        <v>43.77118162904533</v>
+        <v>116.0240883664889</v>
       </c>
       <c r="R2">
-        <v>393.9406346614079</v>
+        <v>1044.2167952984</v>
       </c>
       <c r="S2">
-        <v>0.04430469792006149</v>
+        <v>0.08579904531232177</v>
       </c>
       <c r="T2">
-        <v>0.04430469792006149</v>
+        <v>0.08579904531232178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H3">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I3">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J3">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P3">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q3">
-        <v>17.85298187097244</v>
+        <v>45.70977310630756</v>
       </c>
       <c r="R3">
-        <v>160.676836838752</v>
+        <v>411.387957956768</v>
       </c>
       <c r="S3">
-        <v>0.01807058752649487</v>
+        <v>0.03380207463105372</v>
       </c>
       <c r="T3">
-        <v>0.01807058752649488</v>
+        <v>0.03380207463105372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H4">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I4">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J4">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N4">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P4">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q4">
-        <v>18.49486984301155</v>
+        <v>53.14209505623822</v>
       </c>
       <c r="R4">
-        <v>166.4538285871039</v>
+        <v>478.278855506144</v>
       </c>
       <c r="S4">
-        <v>0.01872029931496628</v>
+        <v>0.03929822751392392</v>
       </c>
       <c r="T4">
-        <v>0.01872029931496628</v>
+        <v>0.03929822751392393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H5">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I5">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J5">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N5">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P5">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q5">
-        <v>3.959567141080888</v>
+        <v>13.98695340432711</v>
       </c>
       <c r="R5">
-        <v>35.63610426972799</v>
+        <v>125.882580638944</v>
       </c>
       <c r="S5">
-        <v>0.004007829342294509</v>
+        <v>0.01034325945426527</v>
       </c>
       <c r="T5">
-        <v>0.00400782934229451</v>
+        <v>0.01034325945426527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H6">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I6">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J6">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N6">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P6">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q6">
-        <v>10.470365828288</v>
+        <v>25.32388458586311</v>
       </c>
       <c r="R6">
-        <v>94.23329245459198</v>
+        <v>227.914961272768</v>
       </c>
       <c r="S6">
-        <v>0.01059798657176328</v>
+        <v>0.0187268450169011</v>
       </c>
       <c r="T6">
-        <v>0.01059798657176328</v>
+        <v>0.01872684501690111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.279157333333333</v>
+        <v>3.275082666666667</v>
       </c>
       <c r="H7">
-        <v>3.837471999999999</v>
+        <v>9.825248</v>
       </c>
       <c r="I7">
-        <v>0.1094775343043046</v>
+        <v>0.284947286227646</v>
       </c>
       <c r="J7">
-        <v>0.1094775343043046</v>
+        <v>0.2849472862276461</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N7">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P7">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q7">
-        <v>13.61024170161066</v>
+        <v>131.1409092649067</v>
       </c>
       <c r="R7">
-        <v>122.492175314496</v>
+        <v>1180.26818338416</v>
       </c>
       <c r="S7">
-        <v>0.01377613362872415</v>
+        <v>0.09697783429918024</v>
       </c>
       <c r="T7">
-        <v>0.01377613362872415</v>
+        <v>0.09697783429918026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H8">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I8">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J8">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N8">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P8">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q8">
-        <v>107.1857468145297</v>
+        <v>110.9682227726972</v>
       </c>
       <c r="R8">
-        <v>964.6717213307671</v>
+        <v>998.714004954275</v>
       </c>
       <c r="S8">
-        <v>0.1084922078229375</v>
+        <v>0.08206026617359224</v>
       </c>
       <c r="T8">
-        <v>0.1084922078229375</v>
+        <v>0.08206026617359224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H9">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I9">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J9">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P9">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q9">
-        <v>43.7179240652859</v>
+        <v>43.71792406528589</v>
       </c>
       <c r="R9">
-        <v>393.4613165875731</v>
+        <v>393.461316587573</v>
       </c>
       <c r="S9">
-        <v>0.04425079121280563</v>
+        <v>0.03232911545049029</v>
       </c>
       <c r="T9">
-        <v>0.04425079121280564</v>
+        <v>0.03232911545049029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H10">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I10">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J10">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N10">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P10">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q10">
-        <v>45.28976286638012</v>
+        <v>50.82637515910655</v>
       </c>
       <c r="R10">
-        <v>407.607865797421</v>
+        <v>457.437376431959</v>
       </c>
       <c r="S10">
-        <v>0.04584178877489337</v>
+        <v>0.03758576797916725</v>
       </c>
       <c r="T10">
-        <v>0.04584178877489338</v>
+        <v>0.03758576797916725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H11">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I11">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J11">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N11">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P11">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q11">
-        <v>9.696086449660779</v>
+        <v>13.37745793252878</v>
       </c>
       <c r="R11">
-        <v>87.264778046947</v>
+        <v>120.397121392759</v>
       </c>
       <c r="S11">
-        <v>0.009814269690036506</v>
+        <v>0.00989254158749525</v>
       </c>
       <c r="T11">
-        <v>0.009814269690036509</v>
+        <v>0.00989254158749525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H12">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I12">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J12">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N12">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P12">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q12">
-        <v>25.639563268762</v>
+        <v>24.22037100879978</v>
       </c>
       <c r="R12">
-        <v>230.756069418858</v>
+        <v>217.983339079198</v>
       </c>
       <c r="S12">
-        <v>0.02595207767183096</v>
+        <v>0.01791080403149686</v>
       </c>
       <c r="T12">
-        <v>0.02595207767183097</v>
+        <v>0.01791080403149686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>3.132367666666667</v>
       </c>
       <c r="H13">
-        <v>9.397103000000001</v>
+        <v>9.397103</v>
       </c>
       <c r="I13">
-        <v>0.2680857778359253</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="J13">
-        <v>0.2680857778359254</v>
+        <v>0.2725304234815927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N13">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P13">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q13">
-        <v>33.32841076753934</v>
+        <v>125.4263130941817</v>
       </c>
       <c r="R13">
-        <v>299.955696907854</v>
+        <v>1128.836817847635</v>
       </c>
       <c r="S13">
-        <v>0.03373464266342129</v>
+        <v>0.09275192825935077</v>
       </c>
       <c r="T13">
-        <v>0.0337346426634213</v>
+        <v>0.09275192825935077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H14">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I14">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J14">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N14">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P14">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q14">
-        <v>41.062002318555</v>
+        <v>29.83062846192777</v>
       </c>
       <c r="R14">
-        <v>369.558020866995</v>
+        <v>268.47565615735</v>
       </c>
       <c r="S14">
-        <v>0.04156249708162431</v>
+        <v>0.02205955228034541</v>
       </c>
       <c r="T14">
-        <v>0.0415624970816243</v>
+        <v>0.02205955228034541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H15">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I15">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J15">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P15">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q15">
-        <v>16.747987047545</v>
+        <v>11.75231176396911</v>
       </c>
       <c r="R15">
-        <v>150.731883427905</v>
+        <v>105.770805875722</v>
       </c>
       <c r="S15">
-        <v>0.01695212418981634</v>
+        <v>0.008690756753685943</v>
       </c>
       <c r="T15">
-        <v>0.01695212418981634</v>
+        <v>0.008690756753685944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H16">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I16">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J16">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N16">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P16">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q16">
-        <v>17.350145920465</v>
+        <v>13.66321524805844</v>
       </c>
       <c r="R16">
-        <v>156.151313284185</v>
+        <v>122.968937232526</v>
       </c>
       <c r="S16">
-        <v>0.01756162263083859</v>
+        <v>0.01010385723072627</v>
       </c>
       <c r="T16">
-        <v>0.01756162263083859</v>
+        <v>0.01010385723072627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H17">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I17">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J17">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N17">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P17">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q17">
-        <v>3.714493168255</v>
+        <v>3.596146422636222</v>
       </c>
       <c r="R17">
-        <v>33.43043851429499</v>
+        <v>32.36531780372599</v>
       </c>
       <c r="S17">
-        <v>0.00375976822239741</v>
+        <v>0.002659326474437752</v>
       </c>
       <c r="T17">
-        <v>0.00375976822239741</v>
+        <v>0.002659326474437753</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H18">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I18">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J18">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N18">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P18">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q18">
-        <v>9.822311619569998</v>
+        <v>6.510953052330222</v>
       </c>
       <c r="R18">
-        <v>88.40080457612999</v>
+        <v>58.59857747097199</v>
       </c>
       <c r="S18">
-        <v>0.00994203338785328</v>
+        <v>0.004814806682201262</v>
       </c>
       <c r="T18">
-        <v>0.00994203338785328</v>
+        <v>0.004814806682201264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.199985</v>
+        <v>0.8420473333333333</v>
       </c>
       <c r="H19">
-        <v>3.599955</v>
+        <v>2.526142</v>
       </c>
       <c r="I19">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460226</v>
       </c>
       <c r="J19">
-        <v>0.1027015173026547</v>
+        <v>0.07326199883460227</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N19">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P19">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q19">
-        <v>12.76784759991</v>
+        <v>33.71727195204333</v>
       </c>
       <c r="R19">
-        <v>114.91062839919</v>
+        <v>303.45544756839</v>
       </c>
       <c r="S19">
-        <v>0.01292347179012476</v>
+        <v>0.02493369941320563</v>
       </c>
       <c r="T19">
-        <v>0.01292347179012476</v>
+        <v>0.02493369941320563</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H20">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I20">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J20">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N20">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P20">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q20">
-        <v>151.9178711523954</v>
+        <v>98.22312419023332</v>
       </c>
       <c r="R20">
-        <v>1367.260840371558</v>
+        <v>884.0081177121</v>
       </c>
       <c r="S20">
-        <v>0.1537695611488682</v>
+        <v>0.07263535013949508</v>
       </c>
       <c r="T20">
-        <v>0.1537695611488682</v>
+        <v>0.0726353501394951</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H21">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I21">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J21">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.870491</v>
       </c>
       <c r="O21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P21">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q21">
-        <v>61.96284629795579</v>
+        <v>38.69676360952133</v>
       </c>
       <c r="R21">
-        <v>557.665616681602</v>
+        <v>348.270872485692</v>
       </c>
       <c r="S21">
-        <v>0.06271809636677625</v>
+        <v>0.02861600053159719</v>
       </c>
       <c r="T21">
-        <v>0.06271809636677626</v>
+        <v>0.0286160005315972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H22">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I22">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J22">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N22">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P22">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q22">
-        <v>64.19066493572822</v>
+        <v>44.98878358733733</v>
       </c>
       <c r="R22">
-        <v>577.715984421554</v>
+        <v>404.899052286036</v>
       </c>
       <c r="S22">
-        <v>0.06497306934428651</v>
+        <v>0.03326890765444766</v>
       </c>
       <c r="T22">
-        <v>0.06497306934428652</v>
+        <v>0.03326890765444767</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H23">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I23">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J23">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N23">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P23">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q23">
-        <v>13.74258104009756</v>
+        <v>11.84100888547067</v>
       </c>
       <c r="R23">
-        <v>123.683229360878</v>
+        <v>106.569079969236</v>
       </c>
       <c r="S23">
-        <v>0.01391008601923288</v>
+        <v>0.008756347687895625</v>
       </c>
       <c r="T23">
-        <v>0.01391008601923289</v>
+        <v>0.008756347687895627</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H24">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I24">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J24">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N24">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P24">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q24">
-        <v>36.33979316118801</v>
+        <v>21.43857448635466</v>
       </c>
       <c r="R24">
-        <v>327.058138450692</v>
+        <v>192.947170377192</v>
       </c>
       <c r="S24">
-        <v>0.03678273006492437</v>
+        <v>0.01585368391756831</v>
       </c>
       <c r="T24">
-        <v>0.03678273006492438</v>
+        <v>0.01585368391756832</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.439607333333334</v>
+        <v>2.772604</v>
       </c>
       <c r="H25">
-        <v>13.318822</v>
+        <v>8.317812</v>
       </c>
       <c r="I25">
-        <v>0.3799667573855723</v>
+        <v>0.241229326399878</v>
       </c>
       <c r="J25">
-        <v>0.3799667573855724</v>
+        <v>0.2412293263998781</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N25">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P25">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q25">
-        <v>47.23744866431067</v>
+        <v>111.02065095706</v>
       </c>
       <c r="R25">
-        <v>425.137037978796</v>
+        <v>999.1858586135401</v>
       </c>
       <c r="S25">
-        <v>0.04781321444148415</v>
+        <v>0.08209903646887418</v>
       </c>
       <c r="T25">
-        <v>0.04781321444148416</v>
+        <v>0.08209903646887419</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H26">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I26">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J26">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N26">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P26">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q26">
-        <v>26.95732477256767</v>
+        <v>16.4740836064</v>
       </c>
       <c r="R26">
-        <v>242.615922953109</v>
+        <v>148.2667524576</v>
       </c>
       <c r="S26">
-        <v>0.027285901050226</v>
+        <v>0.0121824757748559</v>
       </c>
       <c r="T26">
-        <v>0.027285901050226</v>
+        <v>0.0121824757748559</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H27">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I27">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J27">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.870491</v>
       </c>
       <c r="O27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P27">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q27">
-        <v>10.99510254334122</v>
+        <v>6.490261068928</v>
       </c>
       <c r="R27">
-        <v>98.95592289007099</v>
+        <v>58.412349620352</v>
       </c>
       <c r="S27">
-        <v>0.01112911917505978</v>
+        <v>0.004799505097448266</v>
       </c>
       <c r="T27">
-        <v>0.01112911917505978</v>
+        <v>0.004799505097448266</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H28">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I28">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J28">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N28">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P28">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q28">
-        <v>11.39042160684078</v>
+        <v>7.545565143423999</v>
       </c>
       <c r="R28">
-        <v>102.513794461567</v>
+        <v>67.910086290816</v>
       </c>
       <c r="S28">
-        <v>0.01152925668651245</v>
+        <v>0.005579895474832276</v>
       </c>
       <c r="T28">
-        <v>0.01152925668651246</v>
+        <v>0.005579895474832277</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H29">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I29">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J29">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N29">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P29">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q29">
-        <v>2.438575642885444</v>
+        <v>1.985986212224</v>
       </c>
       <c r="R29">
-        <v>21.947180785969</v>
+        <v>17.873875910016</v>
       </c>
       <c r="S29">
-        <v>0.002468298848518332</v>
+        <v>0.001468623657477222</v>
       </c>
       <c r="T29">
-        <v>0.002468298848518333</v>
+        <v>0.001468623657477222</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H30">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I30">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J30">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N30">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P30">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q30">
-        <v>6.448376342973999</v>
+        <v>3.595699804928</v>
       </c>
       <c r="R30">
-        <v>58.035387086766</v>
+        <v>32.361298244352</v>
       </c>
       <c r="S30">
-        <v>0.006526974034458228</v>
+        <v>0.002658996203598958</v>
       </c>
       <c r="T30">
-        <v>0.006526974034458229</v>
+        <v>0.002658996203598959</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7877936666666666</v>
+        <v>0.4650239999999999</v>
       </c>
       <c r="H31">
-        <v>2.363381</v>
+        <v>1.395072</v>
       </c>
       <c r="I31">
-        <v>0.06742384687149293</v>
+        <v>0.04045923120639546</v>
       </c>
       <c r="J31">
-        <v>0.06742384687149294</v>
+        <v>0.04045923120639547</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N31">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P31">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q31">
-        <v>8.382129340095332</v>
+        <v>18.62049798336</v>
       </c>
       <c r="R31">
-        <v>75.43916406085799</v>
+        <v>167.58448185024</v>
       </c>
       <c r="S31">
-        <v>0.008484297076718139</v>
+        <v>0.01376973499818284</v>
       </c>
       <c r="T31">
-        <v>0.008484297076718141</v>
+        <v>0.01376973499818284</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H32">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I32">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J32">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>34.218763</v>
+        <v>35.42630833333333</v>
       </c>
       <c r="N32">
-        <v>102.656289</v>
+        <v>106.278925</v>
       </c>
       <c r="O32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="P32">
-        <v>0.4046921425624349</v>
+        <v>0.3011049743557705</v>
       </c>
       <c r="Q32">
-        <v>28.92472114499834</v>
+        <v>35.65722881981944</v>
       </c>
       <c r="R32">
-        <v>260.322490304985</v>
+        <v>320.915059378375</v>
       </c>
       <c r="S32">
-        <v>0.02927727753871736</v>
+        <v>0.02636828467516014</v>
       </c>
       <c r="T32">
-        <v>0.02927727753871735</v>
+        <v>0.02636828467516014</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H33">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I33">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J33">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.870491</v>
       </c>
       <c r="O33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="P33">
-        <v>0.165062061740135</v>
+        <v>0.1186257117186547</v>
       </c>
       <c r="Q33">
-        <v>11.79754585107945</v>
+        <v>14.04780560572278</v>
       </c>
       <c r="R33">
-        <v>106.177912659715</v>
+        <v>126.430250451505</v>
       </c>
       <c r="S33">
-        <v>0.01194134326918215</v>
+        <v>0.01038825925437927</v>
       </c>
       <c r="T33">
-        <v>0.01194134326918215</v>
+        <v>0.01038825925437927</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H34">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I34">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J34">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.45863566666667</v>
+        <v>16.22618433333333</v>
       </c>
       <c r="N34">
-        <v>43.375907</v>
+        <v>48.678553</v>
       </c>
       <c r="O34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544151</v>
       </c>
       <c r="P34">
-        <v>0.1709967203219173</v>
+        <v>0.1379140262544152</v>
       </c>
       <c r="Q34">
-        <v>12.22171604495056</v>
+        <v>16.33195201154611</v>
       </c>
       <c r="R34">
-        <v>109.995444404555</v>
+        <v>146.987568103915</v>
       </c>
       <c r="S34">
-        <v>0.01237068357042005</v>
+        <v>0.01207737040131776</v>
       </c>
       <c r="T34">
-        <v>0.01237068357042005</v>
+        <v>0.01207737040131777</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H35">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I35">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J35">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.095449666666667</v>
+        <v>4.270717666666667</v>
       </c>
       <c r="N35">
-        <v>9.286349</v>
+        <v>12.812153</v>
       </c>
       <c r="O35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="P35">
-        <v>0.03660869207333731</v>
+        <v>0.03629885229369049</v>
       </c>
       <c r="Q35">
-        <v>2.616547489653889</v>
+        <v>4.298555627990556</v>
       </c>
       <c r="R35">
-        <v>23.548927406885</v>
+        <v>38.687000651915</v>
       </c>
       <c r="S35">
-        <v>0.002648439950857666</v>
+        <v>0.00317875343211937</v>
       </c>
       <c r="T35">
-        <v>0.002648439950857666</v>
+        <v>0.00317875343211937</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H36">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I36">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J36">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.185362</v>
+        <v>7.732288666666666</v>
       </c>
       <c r="N36">
-        <v>24.556086</v>
+        <v>23.196866</v>
       </c>
       <c r="O36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141176</v>
       </c>
       <c r="P36">
-        <v>0.09680512663269379</v>
+        <v>0.06572038381141178</v>
       </c>
       <c r="Q36">
-        <v>6.91899100271</v>
+        <v>7.782690301625556</v>
       </c>
       <c r="R36">
-        <v>62.27091902439001</v>
+        <v>70.04421271463001</v>
       </c>
       <c r="S36">
-        <v>0.007003324901863651</v>
+        <v>0.005755247959645275</v>
       </c>
       <c r="T36">
-        <v>0.007003324901863651</v>
+        <v>0.005755247959645276</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8452883333333334</v>
+        <v>1.006518333333333</v>
       </c>
       <c r="H37">
-        <v>2.535865</v>
+        <v>3.019555</v>
       </c>
       <c r="I37">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="J37">
-        <v>0.07234456630005</v>
+        <v>0.08757173384988551</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.640006</v>
+        <v>40.042015</v>
       </c>
       <c r="N37">
-        <v>31.920018</v>
+        <v>120.126045</v>
       </c>
       <c r="O37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="P37">
-        <v>0.1258352566694816</v>
+        <v>0.3403360515660573</v>
       </c>
       <c r="Q37">
-        <v>8.993872938396667</v>
+        <v>40.30302220110833</v>
       </c>
       <c r="R37">
-        <v>80.94485644557001</v>
+        <v>362.727199809975</v>
       </c>
       <c r="S37">
-        <v>0.009103497069009123</v>
+        <v>0.02980381812726368</v>
       </c>
       <c r="T37">
-        <v>0.009103497069009123</v>
+        <v>0.02980381812726368</v>
       </c>
     </row>
   </sheetData>
